--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>10 nodes</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>job</t>
+  </si>
+  <si>
+    <t>10 nodes optimized</t>
+  </si>
+  <si>
+    <t>100 nodes optimized</t>
   </si>
 </sst>
 </file>
@@ -116,6 +122,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> per job (lower is better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1371,6 +1401,1264 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10 nodes (O)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1884.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1144.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>705.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>378.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>383.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>378.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>422.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>421.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>487.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>379.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>312.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>339.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>385.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>379.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>363.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>363.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>376.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>346.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>411.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>335.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>356.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>405.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>345.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>336.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>316.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>325.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>327.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>316.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>356.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>317.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>318.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>313.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>361.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>314.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>318.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>313.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>332.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>312.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>319.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>327.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>317.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>322.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>334.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>359.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>329.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>317.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>306.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>318.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>316.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>321.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>315.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>321.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>348.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>322.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>313.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>315.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>313.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>316.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>311.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>304.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>318.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>301.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>334.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>306.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>335.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>306.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>304.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>317.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>304.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>304.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>298.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>304.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>302.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>316.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>292.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>306.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>324.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>307.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>302.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>100 nodes (O)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2735.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1258.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1134.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>746.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>774.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>792.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>760.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>726.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>737.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>806.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>738.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>749.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>730.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>727.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>689.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>721.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>791.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>702.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>751.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>723.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>779.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>827.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>951.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>653.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>642.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>731.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>709.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>762.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>640.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>593.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>660.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>608.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>603.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>634.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>685.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>635.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>672.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>631.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>602.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>637.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>648.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>752.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>604.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>620.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>639.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>620.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1287.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>675.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>743.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>724.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>670.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>755.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>761.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>705.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>577.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>581.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>728.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>742.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>802.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>744.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>643.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>673.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>664.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>579.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>604.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>759.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>657.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>632.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>620.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>583.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>533.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>568.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>755.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>687.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>649.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>674.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>652.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>603.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>601.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>624.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>581.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>563.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>587.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>622.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>564.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>584.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>579.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>611.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>601.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>582.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>595.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>588.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>595.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>581.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>561.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>579.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>573.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>578.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1379,13 +2667,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2109306888"/>
-        <c:axId val="2109530952"/>
+        <c:axId val="2091056936"/>
+        <c:axId val="2089654008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2109306888"/>
+        <c:axId val="2091056936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1412,14 +2701,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109530952"/>
+        <c:crossAx val="2089654008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2109530952"/>
+        <c:axId val="2089654008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10000.0"/>
+          <c:min val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1447,13 +2738,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109306888"/>
+        <c:crossAx val="2091056936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -1474,15 +2765,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1826,15 +3117,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1844,8 +3135,14 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1855,8 +3152,14 @@
       <c r="C2">
         <v>11070</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1884</v>
+      </c>
+      <c r="E2">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1866,8 +3169,14 @@
       <c r="C3">
         <v>8205</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>1144</v>
+      </c>
+      <c r="E3">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1877,8 +3186,14 @@
       <c r="C4">
         <v>6182</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>705</v>
+      </c>
+      <c r="E4">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1888,8 +3203,14 @@
       <c r="C5">
         <v>4951</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>360</v>
+      </c>
+      <c r="E5">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1899,8 +3220,14 @@
       <c r="C6">
         <v>4743</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>378</v>
+      </c>
+      <c r="E6">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1910,8 +3237,14 @@
       <c r="C7">
         <v>5237</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>383</v>
+      </c>
+      <c r="E7">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1921,8 +3254,14 @@
       <c r="C8">
         <v>4746</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>365</v>
+      </c>
+      <c r="E8">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1932,8 +3271,14 @@
       <c r="C9">
         <v>4260</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>365</v>
+      </c>
+      <c r="E9">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1943,8 +3288,14 @@
       <c r="C10">
         <v>4279</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>378</v>
+      </c>
+      <c r="E10">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1954,8 +3305,14 @@
       <c r="C11">
         <v>4383</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>422</v>
+      </c>
+      <c r="E11">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1965,8 +3322,14 @@
       <c r="C12">
         <v>5437</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>421</v>
+      </c>
+      <c r="E12">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1976,8 +3339,14 @@
       <c r="C13">
         <v>4825</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>487</v>
+      </c>
+      <c r="E13">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1987,8 +3356,14 @@
       <c r="C14">
         <v>5062</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>379</v>
+      </c>
+      <c r="E14">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1998,8 +3373,14 @@
       <c r="C15">
         <v>5045</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>312</v>
+      </c>
+      <c r="E15">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2009,8 +3390,14 @@
       <c r="C16">
         <v>5235</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>326</v>
+      </c>
+      <c r="E16">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2020,8 +3407,14 @@
       <c r="C17">
         <v>4901</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>339</v>
+      </c>
+      <c r="E17">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2031,8 +3424,14 @@
       <c r="C18">
         <v>4600</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>385</v>
+      </c>
+      <c r="E18">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2042,8 +3441,14 @@
       <c r="C19">
         <v>5079</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>379</v>
+      </c>
+      <c r="E19">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2053,8 +3458,14 @@
       <c r="C20">
         <v>6296</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>363</v>
+      </c>
+      <c r="E20">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2064,8 +3475,14 @@
       <c r="C21">
         <v>4870</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>363</v>
+      </c>
+      <c r="E21">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2075,8 +3492,14 @@
       <c r="C22">
         <v>8150</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>376</v>
+      </c>
+      <c r="E22">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2086,8 +3509,14 @@
       <c r="C23">
         <v>8765</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>346</v>
+      </c>
+      <c r="E23">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2097,8 +3526,14 @@
       <c r="C24">
         <v>8131</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>411</v>
+      </c>
+      <c r="E24">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2108,8 +3543,14 @@
       <c r="C25">
         <v>8441</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>335</v>
+      </c>
+      <c r="E25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2119,8 +3560,14 @@
       <c r="C26">
         <v>5403</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>356</v>
+      </c>
+      <c r="E26">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2130,8 +3577,14 @@
       <c r="C27">
         <v>5766</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>405</v>
+      </c>
+      <c r="E27">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2141,8 +3594,14 @@
       <c r="C28">
         <v>6974</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>345</v>
+      </c>
+      <c r="E28">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2152,8 +3611,14 @@
       <c r="C29">
         <v>7394</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>336</v>
+      </c>
+      <c r="E29">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2163,8 +3628,14 @@
       <c r="C30">
         <v>7799</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>316</v>
+      </c>
+      <c r="E30">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2174,8 +3645,14 @@
       <c r="C31">
         <v>6831</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>325</v>
+      </c>
+      <c r="E31">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2185,8 +3662,14 @@
       <c r="C32">
         <v>7080</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>327</v>
+      </c>
+      <c r="E32">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2196,8 +3679,14 @@
       <c r="C33">
         <v>6617</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>316</v>
+      </c>
+      <c r="E33">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2207,8 +3696,14 @@
       <c r="C34">
         <v>5017</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>356</v>
+      </c>
+      <c r="E34">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2218,8 +3713,14 @@
       <c r="C35">
         <v>3507</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <v>326</v>
+      </c>
+      <c r="E35">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2229,8 +3730,14 @@
       <c r="C36">
         <v>4051</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <v>317</v>
+      </c>
+      <c r="E36">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2240,8 +3747,14 @@
       <c r="C37">
         <v>6397</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>318</v>
+      </c>
+      <c r="E37">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2251,8 +3764,14 @@
       <c r="C38">
         <v>7175</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>330</v>
+      </c>
+      <c r="E38">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2262,8 +3781,14 @@
       <c r="C39">
         <v>6383</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>313</v>
+      </c>
+      <c r="E39">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2273,8 +3798,14 @@
       <c r="C40">
         <v>6687</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>320</v>
+      </c>
+      <c r="E40">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2284,8 +3815,14 @@
       <c r="C41">
         <v>6400</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <v>326</v>
+      </c>
+      <c r="E41">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2295,8 +3832,14 @@
       <c r="C42">
         <v>5767</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>361</v>
+      </c>
+      <c r="E42">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2306,8 +3849,14 @@
       <c r="C43">
         <v>6185</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <v>314</v>
+      </c>
+      <c r="E43">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2317,8 +3866,14 @@
       <c r="C44">
         <v>6377</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <v>318</v>
+      </c>
+      <c r="E44">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2328,8 +3883,14 @@
       <c r="C45">
         <v>6440</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>313</v>
+      </c>
+      <c r="E45">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2339,8 +3900,14 @@
       <c r="C46">
         <v>6711</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <v>332</v>
+      </c>
+      <c r="E46">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2350,8 +3917,14 @@
       <c r="C47">
         <v>6715</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <v>312</v>
+      </c>
+      <c r="E47">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2361,8 +3934,14 @@
       <c r="C48">
         <v>6682</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <v>319</v>
+      </c>
+      <c r="E48">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2372,8 +3951,14 @@
       <c r="C49">
         <v>6954</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <v>327</v>
+      </c>
+      <c r="E49">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2383,8 +3968,14 @@
       <c r="C50">
         <v>6909</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <v>317</v>
+      </c>
+      <c r="E50">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2394,8 +3985,14 @@
       <c r="C51">
         <v>6434</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>322</v>
+      </c>
+      <c r="E51">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2405,8 +4002,14 @@
       <c r="C52">
         <v>6818</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>334</v>
+      </c>
+      <c r="E52">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2416,8 +4019,14 @@
       <c r="C53">
         <v>7184</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <v>359</v>
+      </c>
+      <c r="E53">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2427,8 +4036,14 @@
       <c r="C54">
         <v>6351</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <v>329</v>
+      </c>
+      <c r="E54">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2438,8 +4053,14 @@
       <c r="C55">
         <v>6338</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <v>317</v>
+      </c>
+      <c r="E55">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2449,8 +4070,14 @@
       <c r="C56">
         <v>6451</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <v>306</v>
+      </c>
+      <c r="E56">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2460,8 +4087,14 @@
       <c r="C57">
         <v>6392</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>318</v>
+      </c>
+      <c r="E57">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2471,8 +4104,14 @@
       <c r="C58">
         <v>5953</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <v>316</v>
+      </c>
+      <c r="E58">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2482,8 +4121,14 @@
       <c r="C59">
         <v>2839</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <v>321</v>
+      </c>
+      <c r="E59">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2493,8 +4138,14 @@
       <c r="C60">
         <v>3119</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <v>315</v>
+      </c>
+      <c r="E60">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2504,8 +4155,14 @@
       <c r="C61">
         <v>2956</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <v>321</v>
+      </c>
+      <c r="E61">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2515,8 +4172,14 @@
       <c r="C62">
         <v>3893</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <v>309</v>
+      </c>
+      <c r="E62">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2526,8 +4189,14 @@
       <c r="C63">
         <v>3443</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63">
+        <v>348</v>
+      </c>
+      <c r="E63">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2537,8 +4206,14 @@
       <c r="C64">
         <v>3738</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <v>322</v>
+      </c>
+      <c r="E64">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2548,8 +4223,14 @@
       <c r="C65">
         <v>4056</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <v>313</v>
+      </c>
+      <c r="E65">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2559,8 +4240,14 @@
       <c r="C66">
         <v>4009</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <v>315</v>
+      </c>
+      <c r="E66">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2570,8 +4257,14 @@
       <c r="C67">
         <v>3598</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <v>313</v>
+      </c>
+      <c r="E67">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2581,8 +4274,14 @@
       <c r="C68">
         <v>3625</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <v>305</v>
+      </c>
+      <c r="E68">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2592,8 +4291,14 @@
       <c r="C69">
         <v>5384</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69">
+        <v>316</v>
+      </c>
+      <c r="E69">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2603,8 +4308,14 @@
       <c r="C70">
         <v>4152</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <v>311</v>
+      </c>
+      <c r="E70">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2614,8 +4325,14 @@
       <c r="C71">
         <v>4647</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <v>320</v>
+      </c>
+      <c r="E71">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2625,8 +4342,14 @@
       <c r="C72">
         <v>4623</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <v>304</v>
+      </c>
+      <c r="E72">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2636,8 +4359,14 @@
       <c r="C73">
         <v>3353</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <v>309</v>
+      </c>
+      <c r="E73">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2647,8 +4376,14 @@
       <c r="C74">
         <v>4195</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <v>305</v>
+      </c>
+      <c r="E74">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2658,8 +4393,14 @@
       <c r="C75">
         <v>3713</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <v>318</v>
+      </c>
+      <c r="E75">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2669,8 +4410,14 @@
       <c r="C76">
         <v>4564</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>301</v>
+      </c>
+      <c r="E76">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2680,8 +4427,14 @@
       <c r="C77">
         <v>5379</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <v>300</v>
+      </c>
+      <c r="E77">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2691,8 +4444,14 @@
       <c r="C78">
         <v>6814</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <v>334</v>
+      </c>
+      <c r="E78">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2702,8 +4461,14 @@
       <c r="C79">
         <v>5458</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79">
+        <v>306</v>
+      </c>
+      <c r="E79">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2713,8 +4478,14 @@
       <c r="C80">
         <v>5369</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80">
+        <v>335</v>
+      </c>
+      <c r="E80">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2724,8 +4495,14 @@
       <c r="C81">
         <v>5532</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81">
+        <v>306</v>
+      </c>
+      <c r="E81">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2735,8 +4512,14 @@
       <c r="C82">
         <v>4432</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82">
+        <v>304</v>
+      </c>
+      <c r="E82">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2746,8 +4529,14 @@
       <c r="C83">
         <v>5491</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83">
+        <v>317</v>
+      </c>
+      <c r="E83">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2757,8 +4546,14 @@
       <c r="C84">
         <v>4550</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84">
+        <v>305</v>
+      </c>
+      <c r="E84">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2768,8 +4563,14 @@
       <c r="C85">
         <v>3722</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85">
+        <v>304</v>
+      </c>
+      <c r="E85">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2779,8 +4580,14 @@
       <c r="C86">
         <v>4069</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86">
+        <v>304</v>
+      </c>
+      <c r="E86">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2790,8 +4597,14 @@
       <c r="C87">
         <v>5194</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87">
+        <v>298</v>
+      </c>
+      <c r="E87">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2801,8 +4614,14 @@
       <c r="C88">
         <v>5846</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88">
+        <v>304</v>
+      </c>
+      <c r="E88">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2812,8 +4631,14 @@
       <c r="C89">
         <v>5275</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89">
+        <v>320</v>
+      </c>
+      <c r="E89">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2823,8 +4648,14 @@
       <c r="C90">
         <v>5364</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90">
+        <v>302</v>
+      </c>
+      <c r="E90">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2834,8 +4665,14 @@
       <c r="C91">
         <v>4866</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91">
+        <v>309</v>
+      </c>
+      <c r="E91">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2845,8 +4682,14 @@
       <c r="C92">
         <v>5095</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <v>305</v>
+      </c>
+      <c r="E92">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2856,8 +4699,14 @@
       <c r="C93">
         <v>5007</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93">
+        <v>316</v>
+      </c>
+      <c r="E93">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2867,8 +4716,14 @@
       <c r="C94">
         <v>4441</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94">
+        <v>305</v>
+      </c>
+      <c r="E94">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2878,8 +4733,14 @@
       <c r="C95">
         <v>4928</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <v>292</v>
+      </c>
+      <c r="E95">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2889,8 +4750,14 @@
       <c r="C96">
         <v>6072</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>306</v>
+      </c>
+      <c r="E96">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2900,8 +4767,14 @@
       <c r="C97">
         <v>5583</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97">
+        <v>300</v>
+      </c>
+      <c r="E97">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2911,29 +4784,53 @@
       <c r="C98">
         <v>7342</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98">
+        <v>324</v>
+      </c>
+      <c r="E98">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="C99">
         <v>5507</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <v>307</v>
+      </c>
+      <c r="E99">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="C100">
         <v>5679</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>309</v>
+      </c>
+      <c r="E100">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="C101">
         <v>5428</v>
+      </c>
+      <c r="D101">
+        <v>302</v>
+      </c>
+      <c r="E101">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
